--- a/Section 13/aula-tabela-dados.xlsx
+++ b/Section 13/aula-tabela-dados.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Google Drive\Curso_Excel\12 Ferramentas de análise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Section 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCF86A0-B42E-4BE6-98AA-BE6292050F9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F7DCB2-A22C-46B7-BE67-E4763165FFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4430C8C5-1BA6-4289-86B7-BC19EE26AF37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4430C8C5-1BA6-4289-86B7-BC19EE26AF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela de Dados 1" sheetId="2" r:id="rId1"/>
     <sheet name="Tabela de Dados 2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -496,7 +507,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,7 +524,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -811,42 +822,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBD687A-3E64-44BC-B8CB-CC0BF0464A7B}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="26.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" s="9" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="25"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -863,12 +876,12 @@
       <c r="K6" s="27"/>
       <c r="L6" s="28"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>5</v>
@@ -877,7 +890,10 @@
         <v>6</v>
       </c>
       <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18">
+        <f>F13</f>
+        <v>7470</v>
+      </c>
       <c r="J7" s="17">
         <v>100</v>
       </c>
@@ -888,19 +904,19 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="5">
         <f>C7*C8</f>
-        <v>10000</v>
+        <v>38000</v>
       </c>
       <c r="H8" s="29" t="s">
         <v>17</v>
@@ -908,11 +924,18 @@
       <c r="I8" s="16">
         <v>100</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="19">
+        <f t="dataTable" ref="J8:L10" dt2D="1" dtr="1" r1="C7" r2="C8"/>
+        <v>-18950</v>
+      </c>
+      <c r="K8" s="19">
+        <v>-14125</v>
+      </c>
+      <c r="L8" s="19">
+        <v>-10265</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -930,69 +953,81 @@
       <c r="I9" s="16">
         <v>200</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="19">
+        <v>-9900</v>
+      </c>
+      <c r="K9" s="19">
+        <v>-250</v>
+      </c>
+      <c r="L9" s="19">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="5">
         <f>200*INT(C8/30)</f>
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="16">
         <v>300</v>
       </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="19">
+        <v>-1050</v>
+      </c>
+      <c r="K10" s="19">
+        <v>13425</v>
+      </c>
+      <c r="L10" s="19">
+        <v>25005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="5">
         <f>3000+(F8*1%)</f>
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="5">
         <f>F8*2.5%</f>
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="H12" s="23" t="s">
         <v>18</v>
       </c>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="8">
         <f>F8-SUM(F9:F12)</f>
-        <v>-18950</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -1007,42 +1042,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319CA7F-77A9-4D19-B255-A1F58F239FD6}">
   <dimension ref="B1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:L12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="26.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" s="9" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="25"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1098,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
@@ -1074,11 +1111,20 @@
       <c r="F7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="5">
+        <f>F10</f>
+        <v>1200</v>
+      </c>
+      <c r="K7" s="5">
+        <f>F11</f>
+        <v>3270</v>
+      </c>
+      <c r="L7" s="5">
+        <f>F13</f>
+        <v>-3145</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1098,11 +1144,18 @@
       <c r="I8" s="14">
         <v>100</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="5">
+        <f t="dataTable" ref="J8:L12" dt2D="0" dtr="0" r1="C7"/>
+        <v>1200</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3200</v>
+      </c>
+      <c r="L8" s="5">
+        <v>-9900</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1120,11 +1173,17 @@
       <c r="I9" s="14">
         <v>120</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K9" s="5">
+        <v>3240</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-6040</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1136,11 +1195,17 @@
       <c r="I10" s="14">
         <v>150</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3300</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1152,11 +1217,17 @@
       <c r="I11" s="14">
         <v>190</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3380</v>
+      </c>
+      <c r="L11" s="5">
+        <v>7470</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1168,11 +1239,17 @@
       <c r="I12" s="14">
         <v>210</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="5">
+        <v>1200</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3420</v>
+      </c>
+      <c r="L12" s="5">
+        <v>11330</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
@@ -1181,18 +1258,18 @@
         <v>-3145</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
